--- a/biology/Zoologie/Arcas_tuneta/Arcas_tuneta.xlsx
+++ b/biology/Zoologie/Arcas_tuneta/Arcas_tuneta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arcas tuneta est une espèce d'insectes lépidoptères de la famille des Lycaenidae, sous-famille des Theclinae et du genre Arcas.
 </t>
@@ -511,15 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arcas tuneta a été décrit par William Chapman Hewitson en 1865, sous le nom initial de Thecla tuneta[1].
-Synonymie
-Arcas marginata Austin &amp; Johnson, 1995
-Arcas viriditas Austin &amp; Johnson, 1995;
-Arcas arcadia Bálint, 2002[1].
-Noms vernaculaires
-Arcas tuneta se nomme  Frosted Arcas en anglais[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arcas tuneta a été décrit par William Chapman Hewitson en 1865, sous le nom initial de Thecla tuneta.
 </t>
         </is>
       </c>
@@ -545,10 +553,87 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Arcas marginata Austin &amp; Johnson, 1995
+Arcas viriditas Austin &amp; Johnson, 1995;
+Arcas arcadia Bálint, 2002.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Arcas_tuneta</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arcas_tuneta</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arcas tuneta se nomme  Frosted Arcas en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Arcas_tuneta</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arcas_tuneta</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Arcas tuneta est un petit papillon au corps bleu clair sur le dessus qui possède à chaque aile postérieure deux queues longues, fines et recourbées. Le dessus est marron avec une très large plage bleu clair métallisé partant de la partie basale.
 Le revers est vert à vert jaune doré en large bande costale aux ailes antérieures et sur les ailes postérieures séparées en une partie basale et une partie distale par une large ligne marron en V.
@@ -556,62 +641,100 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Arcas_tuneta</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Arcas_tuneta</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Arcas_tuneta</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Arcas_tuneta</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arcas tuneta est présent en Équateur, au Brésil et en Guyane[1],[2],[3].
-Biotope
-Protection
-Pas de statut de protection particulier.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arcas tuneta est présent en Équateur, au Brésil et en Guyane.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Arcas_tuneta</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arcas_tuneta</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 Sur les autres projets Wikimedia :
 Arcas tuneta, sur Wikimedia CommonsArcas tuneta, sur Wikispecies
 </t>
